--- a/结果/resob11221421.xlsx
+++ b/结果/resob11221421.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ex\SAHS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ex\SAHS\结果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{22D8FF4F-35DD-4645-8625-61436AA7B8B7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{38335D1B-70CD-41C2-B128-A4E3E4CCD40C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>nump</t>
   </si>
@@ -191,6 +191,14 @@
   </si>
   <si>
     <t>分类器2使用易混淆的数据进行训练</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>after</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>optimization</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -256,10 +264,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1505,6 +1516,9 @@
       <c r="W13">
         <v>16.083395383469849</v>
       </c>
+      <c r="Y13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1575,6 +1589,9 @@
       </c>
       <c r="W14">
         <v>17.482981902706289</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.15">
@@ -2295,10 +2312,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2420,6 +2437,446 @@
         <v>22</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>200</v>
+      </c>
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2">
+        <v>200</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2">
+        <v>50</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>200</v>
+      </c>
+      <c r="B15" s="2">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2">
+        <v>200</v>
+      </c>
+      <c r="E15" s="2">
+        <v>50</v>
+      </c>
+      <c r="F15" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2">
+        <v>100</v>
+      </c>
+      <c r="C17" s="2">
+        <v>30</v>
+      </c>
+      <c r="D17" s="2">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2">
+        <v>100</v>
+      </c>
+      <c r="F17" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>200</v>
+      </c>
+      <c r="B18" s="2">
+        <v>50</v>
+      </c>
+      <c r="C18" s="2">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2">
+        <v>200</v>
+      </c>
+      <c r="E18" s="2">
+        <v>50</v>
+      </c>
+      <c r="F18" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>200</v>
+      </c>
+      <c r="B19" s="2">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2">
+        <v>200</v>
+      </c>
+      <c r="E19" s="2">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2">
+        <v>100</v>
+      </c>
+      <c r="C20" s="2">
+        <v>30</v>
+      </c>
+      <c r="D20" s="2">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2">
+        <v>100</v>
+      </c>
+      <c r="F20" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>200</v>
+      </c>
+      <c r="B21" s="2">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2">
+        <v>30</v>
+      </c>
+      <c r="D21" s="2">
+        <v>200</v>
+      </c>
+      <c r="E21" s="2">
+        <v>10</v>
+      </c>
+      <c r="F21" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>200</v>
+      </c>
+      <c r="B22" s="2">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2">
+        <v>30</v>
+      </c>
+      <c r="D22" s="2">
+        <v>200</v>
+      </c>
+      <c r="E22" s="2">
+        <v>10</v>
+      </c>
+      <c r="F22" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>200</v>
+      </c>
+      <c r="B23" s="2">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2">
+        <v>30</v>
+      </c>
+      <c r="D23" s="2">
+        <v>200</v>
+      </c>
+      <c r="E23" s="2">
+        <v>10</v>
+      </c>
+      <c r="F23" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2">
+        <v>100</v>
+      </c>
+      <c r="C24" s="2">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2">
+        <v>100</v>
+      </c>
+      <c r="F24" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>200</v>
+      </c>
+      <c r="B25" s="2">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2">
+        <v>200</v>
+      </c>
+      <c r="E25" s="2">
+        <v>50</v>
+      </c>
+      <c r="F25" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>10</v>
+      </c>
+      <c r="B26" s="2">
+        <v>100</v>
+      </c>
+      <c r="C26" s="2">
+        <v>30</v>
+      </c>
+      <c r="D26" s="2">
+        <v>10</v>
+      </c>
+      <c r="E26" s="2">
+        <v>100</v>
+      </c>
+      <c r="F26" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>200</v>
+      </c>
+      <c r="B27" s="2">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2">
+        <v>10</v>
+      </c>
+      <c r="D27" s="2">
+        <v>200</v>
+      </c>
+      <c r="E27" s="2">
+        <v>10</v>
+      </c>
+      <c r="F27" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>10</v>
+      </c>
+      <c r="B28" s="2">
+        <v>50</v>
+      </c>
+      <c r="C28" s="2">
+        <v>10</v>
+      </c>
+      <c r="D28" s="2">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2">
+        <v>50</v>
+      </c>
+      <c r="F28" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2">
+        <v>100</v>
+      </c>
+      <c r="C29" s="2">
+        <v>30</v>
+      </c>
+      <c r="D29" s="2">
+        <v>10</v>
+      </c>
+      <c r="E29" s="2">
+        <v>100</v>
+      </c>
+      <c r="F29" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>10</v>
+      </c>
+      <c r="B30" s="2">
+        <v>10</v>
+      </c>
+      <c r="C30" s="2">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2">
+        <v>10</v>
+      </c>
+      <c r="E30" s="2">
+        <v>10</v>
+      </c>
+      <c r="F30" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>50</v>
+      </c>
+      <c r="B31" s="2">
+        <v>10</v>
+      </c>
+      <c r="C31" s="2">
+        <v>10</v>
+      </c>
+      <c r="D31" s="2">
+        <v>50</v>
+      </c>
+      <c r="E31" s="2">
+        <v>10</v>
+      </c>
+      <c r="F31" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>200</v>
+      </c>
+      <c r="B32" s="2">
+        <v>10</v>
+      </c>
+      <c r="C32" s="2">
+        <v>30</v>
+      </c>
+      <c r="D32" s="2">
+        <v>200</v>
+      </c>
+      <c r="E32" s="2">
+        <v>10</v>
+      </c>
+      <c r="F32" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>200</v>
+      </c>
+      <c r="B33" s="2">
+        <v>10</v>
+      </c>
+      <c r="C33" s="2">
+        <v>10</v>
+      </c>
+      <c r="D33" s="2">
+        <v>200</v>
+      </c>
+      <c r="E33" s="2">
+        <v>10</v>
+      </c>
+      <c r="F33" s="2">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
